--- a/biology/Botanique/William_Thomas_Stearn/William_Thomas_Stearn.xlsx
+++ b/biology/Botanique/William_Thomas_Stearn/William_Thomas_Stearn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Thomas Stearn est un botaniste britannique, né le 16 avril 1911 à Cambridge et mort le 9 mai 2001.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Expert de l’histoire de la botanique, il est l’auteur d’un dictionnaire étymologique des noms latins des plantes cultivées. Il a présidé la Société linnéenne de Londres de 1979 à 1982 et reçu la médaille linnéenne en 1976 et la Médaille Engler en 1993.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Wilfred Blunt, The Art of Botanical Illustration (1950).
 (en) William T. Stearn, « The background of Linnaeus's contributions to the nomenclature and methods of systematic biology », Systematic Zoology, vol. 8, no 1,‎ 1959, p. 4–22 (JSTOR 2411603, lire en ligne [PDF])
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Ghillean T. Prance (2001), "William Thomas Stearn (1911–2001)", Taxon, 50 : 1255-1276.</t>
         </is>
